--- a/docs/StructureDefinition-DiveMedicalClearance.xlsx
+++ b/docs/StructureDefinition-DiveMedicalClearance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiveMedicalClearance.xlsx
+++ b/docs/StructureDefinition-DiveMedicalClearance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -571,7 +571,7 @@
     <t>Procedure.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1|Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -609,7 +609,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -632,7 +632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
+    <t xml:space="preserve">Reference(Procedure|4.0.1|Observation|4.0.1|MedicationAdministration|4.0.1)
 </t>
   </si>
   <si>
@@ -708,7 +708,7 @@
     <t>A code that identifies the reason a procedure was not performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -729,7 +729,7 @@
     <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -766,7 +766,7 @@
     <t>A code to identify a specific procedure .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -813,7 +813,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -869,7 +869,7 @@
     <t>Procedure.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -982,7 +982,7 @@
     <t>A code that identifies the role of a performer of the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -997,7 +997,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1044,7 +1044,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1078,7 +1078,7 @@
     <t>A code that identifies the reason a procedure is  required.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1093,7 +1093,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|Procedure|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|Procedure|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1125,7 +1125,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1149,7 +1149,7 @@
     <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1158,7 +1158,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|DocumentReference|Composition)
+    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|DocumentReference|4.0.1|Composition|4.0.1)
 </t>
   </si>
   <si>
@@ -1189,7 +1189,7 @@
     <t>Codes describing complications that resulted from a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1198,7 +1198,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -1223,7 +1223,7 @@
     <t>Specific follow up required for a procedure e.g. removal of sutures.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-followup|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1284,7 +1284,7 @@
     <t>A kind of change that happened to the device during the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-action</t>
+    <t>http://hl7.org/fhir/ValueSet/device-action|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1293,7 +1293,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1309,7 +1309,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Medication|Substance)
+    <t xml:space="preserve">Reference(Device|4.0.1|Medication|4.0.1|Substance|4.0.1)
 </t>
   </si>
   <si>
@@ -1341,7 +1341,7 @@
     <t>Codes describing items used during a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind</t>
+    <t>http://hl7.org/fhir/ValueSet/device-kind|4.0.1</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1683,7 +1683,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.9296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1698,7 +1698,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="61.22265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.8046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.3984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
@@ -2740,7 +2740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>154</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>202</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>230</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>355</v>
       </c>
@@ -7740,12 +7740,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN53">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-DiveMedicalClearance.xlsx
+++ b/docs/StructureDefinition-DiveMedicalClearance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiveMedicalClearance.xlsx
+++ b/docs/StructureDefinition-DiveMedicalClearance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiveMedicalClearance.xlsx
+++ b/docs/StructureDefinition-DiveMedicalClearance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiveMedicalClearance.xlsx
+++ b/docs/StructureDefinition-DiveMedicalClearance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiveMedicalClearance.xlsx
+++ b/docs/StructureDefinition-DiveMedicalClearance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiveMedicalClearance.xlsx
+++ b/docs/StructureDefinition-DiveMedicalClearance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
